--- a/inst/extdata/toyFiles/FROC/frocCrNonCharInModalityID.xlsx
+++ b/inst/extdata/toyFiles/FROC/frocCrNonCharInModalityID.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10510"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dev/GitHub/RJafroc/inst/extdata/toyFiles/FROC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88A9D658-722C-C147-B6CE-2481F0A3AEA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894ED41D-A1F7-C443-A023-BCB6D98AE851}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6020" yWindow="2520" windowWidth="10980" windowHeight="10640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,7 +79,7 @@
     <t>FROC</t>
   </si>
   <si>
-    <t>crossed</t>
+    <t>FCTRL</t>
   </si>
 </sst>
 </file>
@@ -610,7 +610,7 @@
       </c>
       <c r="M1">
         <f ca="1">RAND()-0.5</f>
-        <v>-0.21562612993605168</v>
+        <v>0.2805121459704859</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -631,11 +631,11 @@
       </c>
       <c r="J2">
         <f t="shared" ref="J2:J5" ca="1" si="0">ROUND(0.5*(RAND()-0.5)+E2, 2)</f>
-        <v>5.34</v>
+        <v>5.07</v>
       </c>
       <c r="M2">
         <f t="shared" ref="M2:M13" ca="1" si="1">RAND()-0.5</f>
-        <v>7.5355456547573474E-2</v>
+        <v>0.36648655465019475</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -656,11 +656,11 @@
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>4.83</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="M3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2505863691342326</v>
+        <v>0.15485848944997305</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -681,11 +681,11 @@
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>2.79</v>
+        <v>3.17</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.25186486668685415</v>
+        <v>0.22408222672381917</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -706,11 +706,11 @@
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>6.17</v>
+        <v>6</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22175948718193894</v>
+        <v>0.14519075556394956</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -731,11 +731,11 @@
       </c>
       <c r="J6">
         <f t="shared" ref="J6:J11" ca="1" si="2">ROUND(0.5*(RAND()-0.5)+E6, 2)</f>
-        <v>5.22</v>
+        <v>4.82</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19621972793062825</v>
+        <v>0.19725868230736221</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -756,11 +756,11 @@
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="2"/>
-        <v>5.35</v>
+        <v>5.23</v>
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18553509238829657</v>
+        <v>0.38064851860590132</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -781,11 +781,11 @@
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="2"/>
-        <v>4.45</v>
+        <v>4.07</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.14637141208069415</v>
+        <v>0.10297586593686325</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -806,11 +806,11 @@
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="2"/>
-        <v>5.14</v>
+        <v>5.27</v>
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.40182187251446744</v>
+        <v>0.23013493670857943</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -831,11 +831,11 @@
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="2"/>
-        <v>3.54</v>
+        <v>3.26</v>
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="1"/>
-        <v>4.1011873915749453E-3</v>
+        <v>2.6866585795714659E-2</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -856,11 +856,11 @@
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="2"/>
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.34397402642580599</v>
+        <v>0.40006731487183378</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -881,7 +881,7 @@
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.20505349008282658</v>
+        <v>-0.29238806019616603</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -902,7 +902,7 @@
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7143007440576175E-2</v>
+        <v>0.25536897812670334</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -940,7 +940,7 @@
       </c>
       <c r="M15">
         <f ca="1">AVERAGE(M1:M13)</f>
-        <v>-4.7231651516298385E-2</v>
+        <v>0.19015869188578577</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="J2">
         <f t="shared" ref="J2:J11" ca="1" si="0">ROUND(0.5*(RAND()-0.5)+D2, 2)</f>
-        <v>1.22</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>2.23</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.85</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>2.35</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>2.93</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -1408,7 +1408,7 @@
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>2.33</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>1.97</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1631,7 +1631,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
